--- a/xlsx/帝国大厦_intext.xlsx
+++ b/xlsx/帝国大厦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="815">
   <si>
     <t>帝国大厦</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>克萊斯勒大廈</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_帝国大厦</t>
+    <t>克莱斯勒大厦</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_帝国大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>世界貿易中心</t>
+    <t>世界贸易中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A0%93</t>
   </si>
   <si>
-    <t>曼哈頓</t>
+    <t>曼哈顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E5%A4%A7%E9%81%93</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%B2%E8%B9%9F%E5%90%8D%E9%8C%84</t>
   </si>
   <si>
-    <t>國家史蹟名錄</t>
+    <t>国家史蹟名录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E6%AD%B7%E5%8F%B2%E5%9C%B0%E6%A8%99</t>
   </si>
   <si>
-    <t>美國國家歷史地標</t>
+    <t>美国国家历史地标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%85%E9%A5%B0%E9%A3%8E%E8%89%BA%E6%9C%AF</t>
@@ -95,13 +95,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%93%88%E9%A1%BF</t>
   </si>
   <si>
-    <t>曼哈顿</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>摩天大樓</t>
+    <t>摩天大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -113,13 +110,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E5%B7%9E</t>
   </si>
   <si>
-    <t>帝國州</t>
+    <t>帝国州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%A8%99</t>
   </si>
   <si>
-    <t>地標</t>
+    <t>地标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%83%E5%A4%A7%E5%B7%A5%E7%A8%8B%E5%A5%87%E8%BF%B9</t>
@@ -149,15 +146,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠建築</t>
+    <t>绿建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E6%96%AF%E5%8B%92%E5%A4%A7%E5%8E%A6</t>
   </si>
   <si>
-    <t>克莱斯勒大厦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94</t>
   </si>
   <si>
@@ -179,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E9%8F%BD%E9%8B%BC</t>
   </si>
   <si>
-    <t>不鏽鋼</t>
+    <t>不锈钢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -203,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
   </si>
   <si>
-    <t>經濟大蕭條</t>
+    <t>经济大萧条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E4%BA%A4%E9%80%9A</t>
@@ -221,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/GE%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>GE大樓</t>
+    <t>GE大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-25%E8%BD%B0%E7%82%B8%E6%9C%BA%E6%92%9E%E5%87%BB%E5%B8%9D%E5%9B%BD%E5%A4%A7%E5%8E%A6%E4%BA%8B%E6%95%85</t>
@@ -263,15 +257,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%9D%A6%E9%87%91%E8%AB%BE%E9%9B%BB%E8%A6%96%E5%A1%94</t>
   </si>
   <si>
-    <t>奧斯坦金諾電視塔</t>
+    <t>奥斯坦金诺电视塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>世界贸易中心</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/911%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
@@ -281,15 +272,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%B8%80%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心一號大樓</t>
+    <t>世界贸易中心一号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
   </si>
   <si>
@@ -299,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%88%BE%E6%96%AF%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>西爾斯大樓</t>
+    <t>西尔斯大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9B%AD%E5%A4%A7%E9%81%93432%E5%8F%B7</t>
@@ -323,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%A4%A7%E9%81%B8</t>
   </si>
   <si>
-    <t>美國總統大選</t>
+    <t>美国总统大选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E7%85%A7%E7%81%AF</t>
@@ -389,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%8E%89%E7%9B%9F</t>
@@ -401,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%A5%BF%E5%82%91%E5%85%8B%E6%A3%AE%EF%BC%9A%E7%A5%9E%E7%81%AB%E4%B9%8B%E8%B3%8A</t>
   </si>
   <si>
-    <t>波西傑克森：神火之賊</t>
+    <t>波西杰克森：神火之贼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%B8%95%E6%96%AF%E5%B1%B1</t>
   </si>
   <si>
-    <t>奧林帕斯山</t>
+    <t>奥林帕斯山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_New_York_Times</t>
@@ -425,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>美國摩天大樓</t>
+    <t>美国摩天大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%83%E5%A4%A7%E5%A5%87%E8%BF%B9</t>
@@ -455,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%E5%AE%99%E6%96%AF%E7%A5%9E%E5%83%8F</t>
   </si>
   <si>
-    <t>奧林匹亞宙斯神像</t>
+    <t>奥林匹亚宙斯神像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%80%B3%E5%BF%92%E5%BC%A5%E6%96%AF%E7%A5%9E%E5%BA%99</t>
@@ -473,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%97%E5%B3%B6%E5%A4%AA%E9%99%BD%E7%A5%9E%E9%8A%85%E5%83%8F</t>
   </si>
   <si>
-    <t>羅得島太陽神銅像</t>
+    <t>罗得岛太阳神铜像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E7%81%AF%E5%A1%94</t>
@@ -521,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B4%A2%E8%8F%B2%E4%BA%9E%E5%A4%A7%E6%95%99%E5%A0%82</t>
   </si>
   <si>
-    <t>聖索菲亞大教堂</t>
+    <t>圣索菲亚大教堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%96%B0%E4%B8%83%E5%A4%A7%E5%A5%87%E8%BF%B9</t>
@@ -533,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%96%A9%E9%87%91%E5%AD%97%E5%A1%94%E7%BE%A4</t>
   </si>
   <si>
-    <t>吉薩金字塔群</t>
+    <t>吉萨金字塔群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E7%89%B9%E6%8B%89</t>
@@ -545,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%86%B1%E5%85%A7%E7%9B%A7%E5%9F%BA%E7%9D%A3%E5%83%8F</t>
   </si>
   <si>
-    <t>里約熱內盧基督像</t>
+    <t>里约热内卢基督像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%98%E6%AF%94%E4%B8%98</t>
@@ -593,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%8B%E5%AE%B6%E9%9B%BB%E8%A6%96%E5%A1%94</t>
   </si>
   <si>
-    <t>加拿大國家電視塔</t>
+    <t>加拿大国家电视塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%B3%95%E6%B5%B7%E5%BA%95%E9%9A%A7%E9%81%93</t>
@@ -605,19 +593,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%83%E5%A4%A7%E8%87%AA%E7%84%B6%E5%A5%87%E8%A7%80</t>
   </si>
   <si>
-    <t>世界七大自然奇觀</t>
+    <t>世界七大自然奇观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%A4%A7%E5%B3%BD%E8%B0%B7</t>
   </si>
   <si>
-    <t>科羅拉多大峽谷</t>
+    <t>科罗拉多大峡谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A0%A1%E7%A4%81</t>
@@ -635,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%86%B1%E5%85%A7%E7%9B%A7</t>
   </si>
   <si>
-    <t>里約熱內盧</t>
+    <t>里约热内卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E7%BA%B3%E5%B7%B4%E6%8B%89%E6%B9%BE</t>
@@ -647,19 +635,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
+    <t>尼泊尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E7%A9%86%E6%9C%97%E7%91%AA%E5%B3%B0</t>
   </si>
   <si>
-    <t>珠穆朗瑪峰</t>
+    <t>珠穆朗玛峰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -689,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A5%B5</t>
   </si>
   <si>
-    <t>兩極</t>
+    <t>两极</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%85%89</t>
@@ -713,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%8A%A0%E5%B0%94%E6%B9%96</t>
@@ -725,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E7%9F%B3%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>黃石國家公園</t>
+    <t>黄石国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%83%E5%A4%A7%E5%A5%87%E8%BF%B9%E5%8D%8F%E4%BC%9A</t>
@@ -755,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%8A%80%E8%A1%8C%E5%BB%A3%E5%A0%B4_(%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7)</t>
   </si>
   <si>
-    <t>美國銀行廣場 (亞特蘭大)</t>
+    <t>美国银行广场 (亚特兰大)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%93%B6%E8%A1%8C%E5%A4%A7%E5%8E%A6</t>
@@ -779,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E6%BC%A2%E8%80%83%E5%85%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>約翰漢考克中心</t>
+    <t>约翰汉考克中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>紐約時報大廈</t>
+    <t>纽约时报大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%8E%E8%A1%8C%E5%B9%BF%E5%9C%BA%E4%BA%8C%E5%8F%B7%E5%A4%A7%E5%8E%A6</t>
@@ -803,19 +791,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E6%96%AF%E9%A0%93%E5%AF%8C%E5%9C%8B%E9%8A%80%E8%A1%8C%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>侯斯頓富國銀行廣場</t>
+    <t>侯斯顿富国银行广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%88%A9%E6%96%AF%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>威利斯大廈</t>
+    <t>威利斯大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%88%BE%E6%96%AF%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>西爾斯大廈</t>
+    <t>西尔斯大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%81%A9%E5%A1%94</t>
@@ -827,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%A1%94</t>
   </si>
   <si>
-    <t>大聖地牙哥塔</t>
+    <t>大圣地牙哥塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/One57</t>
@@ -845,19 +833,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%9D%B1%E7%9C%81</t>
   </si>
   <si>
-    <t>廣東省</t>
+    <t>广东省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%B7%9E%E5%9B%BD%E9%99%85%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83</t>
@@ -887,13 +875,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E6%B1%9F%E5%9F%8E%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>珠江城大廈</t>
+    <t>珠江城大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B7%9E%E5%91%A8%E5%A4%A7%E7%A6%8F%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>廣州周大福金融中心</t>
+    <t>广州周大福金融中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E5%9F%BA100</t>
@@ -905,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E8%88%88%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>信興廣場</t>
+    <t>信兴广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9B%E6%A0%BC%E5%B9%BF%E5%9C%BA</t>
@@ -917,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%AE%89%E5%9C%8B%E9%9A%9B%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>平安國際金融中心</t>
+    <t>平安国际金融中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3%E9%95%BF%E5%AF%8C%E9%87%91%E8%8C%82%E5%A4%A7%E5%8E%A6</t>
@@ -935,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%98%87%E7%9C%81</t>
   </si>
   <si>
-    <t>江蘇省</t>
+    <t>江苏省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AB%E5%B3%B0%E5%A4%A7%E5%8E%A6</t>
@@ -965,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E8%8F%AF%E8%A5%BF%E6%9D%91</t>
   </si>
   <si>
-    <t>空中華西村</t>
+    <t>空中华西村</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%B8%82</t>
@@ -1055,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%A3%E8%A3%95%E6%99%AF%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>大連裕景中心</t>
+    <t>大连裕景中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B7%9E%E4%B8%96%E7%95%8C%E8%B4%B8%E6%98%93%E4%B8%AD%E5%BF%83</t>
@@ -1073,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%93%B6%E5%A4%A7%E5%8E%A6</t>
@@ -1091,43 +1079,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%92%B0%E5%BB%A3%E5%A0%B4_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>中環廣場 (香港)</t>
+    <t>中环广场 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%87%91%E8%9E%8D%E4%B8%AD%E5%BF%83_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>國際金融中心 (香港)</t>
+    <t>国际金融中心 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E8%B2%BF%E6%98%93%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>環球貿易廣場</t>
+    <t>环球贸易广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%82%E5%BF%83%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>如心廣場</t>
+    <t>如心广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%B3%B6%E6%9D%B1%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>港島東中心</t>
+    <t>港岛东中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%97%85%E9%81%8A%E5%A1%94</t>
   </si>
   <si>
-    <t>澳門旅遊塔</t>
+    <t>澳门旅游塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97101</t>
@@ -1139,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%89%E4%BA%BA%E5%A3%BD%E4%BF%9D%E9%9A%AA%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>新光人壽保險摩天大樓</t>
+    <t>新光人寿保险摩天大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%8485%E5%A4%A7%E6%A5%BC</t>
@@ -1151,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%B0%B7%E4%B8%96%E8%B2%BF%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>長谷世貿聯合國大樓</t>
+    <t>长谷世贸联合国大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -1169,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E5%9C%B0%E6%A8%99%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>橫濱地標大廈</t>
+    <t>横滨地标大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%8E%E4%B9%8B%E9%97%A8%E4%B9%8B%E4%B8%98</t>
@@ -1187,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%83%BD%E5%BB%B3%E8%88%8D</t>
   </si>
   <si>
-    <t>東京都廳舍</t>
+    <t>东京都厅舍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NTT_DoCoMo%E4%BB%A3%E4%BB%A3%E6%9C%A8%E5%A4%A7%E5%8E%A6</t>
@@ -1205,13 +1193,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E6%9C%AC%E6%9C%A8%E6%96%B0%E5%9F%8E%E6%A3%AE%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>六本木新城森大樓</t>
+    <t>六本木新城森大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%AE%BF%E5%85%AC%E5%9C%92%E5%A1%94</t>
   </si>
   <si>
-    <t>新宿公園塔</t>
+    <t>新宿公园塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%AC%E6%AD%8C%E5%89%A7%E5%9F%8E</t>
@@ -1247,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E9%80%9A%E7%B8%BD%E9%83%A8%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>電通總部大廈</t>
+    <t>电通总部大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%AE%BF%E4%BD%8F%E5%8F%8B%E5%A4%A7%E5%8E%A6</t>
@@ -1265,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/Mode%E5%AD%B8%E5%9C%92%E8%9F%B2%E7%B9%AD%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>Mode學園蟲繭大廈</t>
+    <t>Mode学园虫茧大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%B8%E4%B9%8B%E5%86%85%E5%A4%A7%E5%8E%A6</t>
@@ -1289,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E8%A6%96%E5%8F%B0%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>日本電視台大廈</t>
+    <t>日本电视台大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Acty%E6%B1%90%E7%95%99</t>
@@ -1301,25 +1289,25 @@
     <t>https://zh.wikipedia.org/wiki/JR%E4%B8%AD%E5%A4%AE%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>JR中央大廈</t>
+    <t>JR中央大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E4%BA%9E%E6%B4%B2%E8%B2%BF%E6%98%93%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>東北亞洲貿易大廈</t>
+    <t>东北亚洲贸易大厦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/We%27ve_the_Zenith</t>
@@ -1331,19 +1319,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9%E4%B8%96%E7%95%8C%E5%A1%94</t>
   </si>
   <si>
-    <t>樂天世界塔</t>
+    <t>乐天世界塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E4%BA%AC%E9%A3%AF%E5%BA%97</t>
   </si>
   <si>
-    <t>柳京飯店</t>
+    <t>柳京饭店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西亞</t>
+    <t>西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E7%8E%9B%E6%96%AF%E5%A4%A7%E6%A5%BC</t>
@@ -1361,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E7%99%BC%E5%A1%94</t>
   </si>
   <si>
-    <t>哈里發塔</t>
+    <t>哈里发塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%8A%A0%E7%9A%87%E5%AE%B6%E9%92%9F%E5%A1%94%E9%A5%AD%E5%BA%97</t>
@@ -1373,13 +1361,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%93%88%E5%A7%86%E6%8B%89%E5%A1%94</t>
   </si>
   <si>
-    <t>阿爾哈姆拉塔</t>
+    <t>阿尔哈姆拉塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E5%A8%9C23%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>瑪麗娜23大廈</t>
+    <t>玛丽娜23大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%94%E9%85%8B%E5%A4%A7%E5%8E%A6</t>
@@ -1391,19 +1379,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E7%BE%8E%E6%8B%89%E9%98%BF%E8%81%AF%E9%85%8B%E9%85%92%E5%BA%97</t>
   </si>
   <si>
-    <t>朱美拉阿聯酋酒店</t>
+    <t>朱美拉阿联酋酒店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9C%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>王國中心</t>
+    <t>王国中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AB%E7%91%B0%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>玫瑰大廈</t>
+    <t>玫瑰大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E6%8B%9C%E5%B8%82%E4%B8%AD%E5%BF%83%E9%98%BF%E5%BE%B7%E9%87%8C%E6%96%AF%E9%85%92%E5%BA%97</t>
@@ -1433,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E6%95%B8%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>指數大廈</t>
+    <t>指数大厦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Landmark_(Abu_Dhabi)</t>
@@ -1475,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E7%99%BC%E5%A1%94</t>
   </si>
   <si>
-    <t>阿爾發塔</t>
+    <t>阿尔发塔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cayan_Tower</t>
@@ -1499,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%99%B9%E4%B8%AD%E5%BF%83%E7%AC%AC%E4%BA%8C%E6%9C%9F</t>
@@ -1511,13 +1499,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%B3%B0%E5%A1%94</t>
   </si>
   <si>
-    <t>雙峰塔</t>
+    <t>双峰塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E9%9B%BB%E8%A8%8A%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>馬來西亞電訊大廈</t>
+    <t>马来西亚电讯大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%9A%86%E5%9D%A1%E5%A1%94</t>
@@ -1571,19 +1559,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83%E5%A1%94_(%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F)</t>
   </si>
   <si>
-    <t>歐元塔 (法蘭克福)</t>
+    <t>欧元塔 (法兰克福)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E9%8A%80%E8%A1%8C%E9%9B%99%E5%A1%94</t>
   </si>
   <si>
-    <t>德意志銀行雙塔</t>
+    <t>德意志银行双塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BC%94%E9%9B%BB%E8%A6%96%E5%A1%94</t>
   </si>
   <si>
-    <t>基輔電視塔</t>
+    <t>基辅电视塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E7%94%B5%E8%A7%86%E5%A1%94</t>
@@ -1595,19 +1583,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%97%8B%E5%AE%AE</t>
   </si>
   <si>
-    <t>凱旋宮</t>
+    <t>凯旋宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%95%86%E6%A5%AD%E9%8A%80%E8%A1%8C%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>德國商業銀行大廈</t>
+    <t>德国商业银行大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C%E6%B0%B4%E6%99%B6%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>馬德里水晶大廈</t>
+    <t>马德里水晶大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%8A%A0%E5%B9%BF%E6%92%AD%E7%94%B5%E8%A7%86%E5%A1%94</t>
@@ -1637,7 +1625,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>發現大樓</t>
+    <t>发现大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Q1%E5%A4%A7%E5%8E%A6</t>
@@ -1649,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%B8%89%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心三號大樓</t>
+    <t>世界贸易中心三号大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E5%B8%8C%E5%B0%94%E5%A4%A7%E5%8E%A6</t>
@@ -1667,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%BE%B7%E6%96%AF%E7%89%B9%E5%A7%86%E5%A1%94</t>
   </si>
   <si>
-    <t>諾德斯特姆塔</t>
+    <t>诺德斯特姆塔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fortune_Center</t>
@@ -1781,7 +1769,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E5%B7%9E%E7%8F%BE%E4%BB%A3%E5%82%B3%E5%AA%92%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>常州現代傳媒中心</t>
+    <t>常州现代传媒中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Runhua_Global_Center_1</t>
@@ -1847,13 +1835,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BC%E5%AF%A7%E7%9C%81</t>
   </si>
   <si>
-    <t>遼寧省</t>
+    <t>辽宁省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%A3%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>大連國際貿易中心</t>
+    <t>大连国际贸易中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%BF%9E%E7%BB%BF%E5%9C%B0%E4%B8%AD%E5%BF%83</t>
@@ -1865,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E8%A5%BF%E5%A3%AF%E6%97%8F%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>廣西壯族自治區</t>
+    <t>广西壮族自治区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/China_Resources_Centre_Block_A</t>
@@ -1907,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E5%8D%97%E7%9C%81</t>
   </si>
   <si>
-    <t>雲南省</t>
+    <t>云南省</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Spring_City_66</t>
@@ -1925,7 +1913,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E5%B7%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>貴州省</t>
+    <t>贵州省</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Huaguoyuan_Tower_1</t>
@@ -1961,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%88%E9%96%80%E5%9C%8B%E9%9A%9B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>廈門國際中心</t>
+    <t>厦门国际中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/White_Magnolia_Plaza</t>
@@ -2027,13 +2015,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%A1%94</t>
   </si>
   <si>
-    <t>無限塔</t>
+    <t>无限塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9C%8B%E5%A1%94</t>
   </si>
   <si>
-    <t>王國塔</t>
+    <t>王国塔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ADNOC_Headquarters</t>
@@ -2153,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>南亞</t>
+    <t>南亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oasis_Tower</t>
@@ -2177,7 +2165,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>世界一號</t>
+    <t>世界一号</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orchid_Crown</t>
@@ -2219,7 +2207,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E9%9B%99%E5%AD%90%E6%98%9F</t>
   </si>
   <si>
-    <t>台北雙子星</t>
+    <t>台北双子星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%88%E8%BF%AA%E6%8B%9C%E5%A1%94</t>
@@ -2303,7 +2291,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%9C%E5%B1%B1%E6%A8%82%E5%A4%A9%E5%A1%94</t>
   </si>
   <si>
-    <t>釜山樂天塔</t>
+    <t>釜山乐天塔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Federation_Tower</t>
@@ -2315,7 +2303,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%BA%9C%E6%81%92%E9%9A%86%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>市府恒隆廣場</t>
+    <t>市府恒隆广场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/India_Tower</t>
@@ -2357,7 +2345,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E4%B8%AD%E5%BF%83%E4%BA%8C%E8%99%9F%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>世界貿易中心二號大樓</t>
+    <t>世界贸易中心二号大楼</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Seoul_Lite</t>
@@ -2441,19 +2429,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>摩天大樓列表</t>
+    <t>摩天大楼列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/100%E6%A8%93%E5%B1%A4%E4%BB%A5%E4%B8%8A%E5%BB%BA%E7%AF%89%E7%89%A9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>100樓層以上建築物列表</t>
+    <t>100楼层以上建筑物列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3190,7 +3178,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -3216,10 +3204,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
@@ -3245,10 +3233,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -3274,10 +3262,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -3303,10 +3291,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>7</v>
@@ -3332,10 +3320,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -3361,10 +3349,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>11</v>
@@ -3390,10 +3378,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3419,10 +3407,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3448,10 +3436,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3477,10 +3465,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -3506,10 +3494,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3535,10 +3523,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3564,10 +3552,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3593,10 +3581,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3622,10 +3610,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -3651,10 +3639,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3680,10 +3668,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3709,10 +3697,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3738,10 +3726,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3767,10 +3755,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -3796,10 +3784,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3825,10 +3813,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3854,10 +3842,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3883,10 +3871,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3912,10 +3900,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3941,10 +3929,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3970,10 +3958,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3999,10 +3987,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4028,10 +4016,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="G42" t="n">
         <v>5</v>
@@ -4057,10 +4045,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4086,10 +4074,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -4115,10 +4103,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="G45" t="n">
         <v>13</v>
@@ -4144,10 +4132,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -4173,10 +4161,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4202,10 +4190,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -4231,10 +4219,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4260,10 +4248,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4289,10 +4277,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4318,10 +4306,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4347,10 +4335,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4376,10 +4364,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4405,10 +4393,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4434,10 +4422,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -4463,10 +4451,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4492,10 +4480,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4521,10 +4509,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4550,10 +4538,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4579,10 +4567,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -4608,10 +4596,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4637,10 +4625,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4666,10 +4654,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4695,10 +4683,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4724,10 +4712,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4753,10 +4741,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4782,10 +4770,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4811,10 +4799,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4840,10 +4828,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4869,10 +4857,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4898,10 +4886,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4927,10 +4915,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4956,10 +4944,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4985,10 +4973,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5014,10 +5002,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5043,10 +5031,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5072,10 +5060,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5101,10 +5089,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -5130,10 +5118,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5159,10 +5147,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5188,10 +5176,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5217,10 +5205,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5246,10 +5234,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5275,10 +5263,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5304,10 +5292,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5333,10 +5321,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5362,10 +5350,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5391,10 +5379,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5420,10 +5408,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5449,10 +5437,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5478,10 +5466,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5507,10 +5495,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5536,10 +5524,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5565,10 +5553,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5594,10 +5582,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5623,10 +5611,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5652,10 +5640,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5681,10 +5669,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5710,10 +5698,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5739,10 +5727,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5768,10 +5756,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5797,10 +5785,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5826,10 +5814,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5855,10 +5843,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5884,10 +5872,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -5913,10 +5901,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5942,10 +5930,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5971,10 +5959,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6000,10 +5988,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6029,10 +6017,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6058,10 +6046,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6087,10 +6075,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6116,10 +6104,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6145,10 +6133,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6174,10 +6162,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6203,10 +6191,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6232,10 +6220,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6261,10 +6249,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6290,10 +6278,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6319,10 +6307,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -6348,10 +6336,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" t="s">
         <v>27</v>
-      </c>
-      <c r="F122" t="s">
-        <v>28</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6377,10 +6365,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F123" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6406,10 +6394,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6435,10 +6423,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6464,10 +6452,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6493,10 +6481,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6522,10 +6510,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6551,10 +6539,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6580,10 +6568,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6609,10 +6597,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6638,10 +6626,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F132" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6667,10 +6655,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6696,10 +6684,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6725,10 +6713,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6754,10 +6742,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6783,10 +6771,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6812,10 +6800,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6841,10 +6829,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6870,10 +6858,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6899,10 +6887,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6928,10 +6916,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6957,10 +6945,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6986,10 +6974,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7015,10 +7003,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7044,10 +7032,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7073,10 +7061,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7102,10 +7090,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7131,10 +7119,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7160,10 +7148,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7189,10 +7177,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7218,10 +7206,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7247,10 +7235,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7276,10 +7264,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7305,10 +7293,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7334,10 +7322,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7363,10 +7351,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7392,10 +7380,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7421,10 +7409,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7450,10 +7438,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7479,10 +7467,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7508,10 +7496,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7537,10 +7525,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7566,10 +7554,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7595,10 +7583,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7624,10 +7612,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7653,10 +7641,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7682,10 +7670,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7711,10 +7699,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7740,10 +7728,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7769,10 +7757,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7798,10 +7786,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7827,10 +7815,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7856,10 +7844,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7885,10 +7873,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7914,10 +7902,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7943,10 +7931,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7972,10 +7960,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8001,10 +7989,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -8030,10 +8018,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>4</v>
@@ -8059,10 +8047,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8088,10 +8076,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8117,10 +8105,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8146,10 +8134,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>9</v>
@@ -8175,10 +8163,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8204,10 +8192,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8233,10 +8221,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8262,10 +8250,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8291,10 +8279,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8320,10 +8308,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8349,10 +8337,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8378,10 +8366,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8407,10 +8395,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8436,10 +8424,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G194" t="n">
         <v>4</v>
@@ -8465,10 +8453,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8494,10 +8482,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8523,10 +8511,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8552,10 +8540,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8581,10 +8569,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8610,10 +8598,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8639,10 +8627,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8668,10 +8656,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8697,10 +8685,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8726,10 +8714,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8755,10 +8743,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8784,10 +8772,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8813,10 +8801,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8842,10 +8830,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8871,10 +8859,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8900,10 +8888,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8929,10 +8917,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8958,10 +8946,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8987,10 +8975,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9016,10 +9004,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9045,10 +9033,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9074,10 +9062,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9103,10 +9091,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9132,10 +9120,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9161,10 +9149,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9190,10 +9178,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9219,10 +9207,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9248,10 +9236,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9277,10 +9265,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9306,10 +9294,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9335,10 +9323,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9364,10 +9352,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9393,10 +9381,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9422,10 +9410,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9451,10 +9439,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9480,10 +9468,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9509,10 +9497,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9538,10 +9526,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9567,10 +9555,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9596,10 +9584,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9625,10 +9613,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9654,10 +9642,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9683,10 +9671,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9712,10 +9700,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9741,10 +9729,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9770,10 +9758,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9799,10 +9787,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9828,10 +9816,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9857,10 +9845,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9886,10 +9874,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9915,10 +9903,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9944,10 +9932,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9973,10 +9961,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10002,10 +9990,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10031,10 +10019,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10060,10 +10048,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10089,10 +10077,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10118,10 +10106,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10147,10 +10135,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10176,10 +10164,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10205,10 +10193,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10234,10 +10222,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10263,10 +10251,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10292,10 +10280,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10321,10 +10309,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -10350,10 +10338,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10379,10 +10367,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10408,10 +10396,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10437,10 +10425,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10466,10 +10454,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10495,10 +10483,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F265" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10524,10 +10512,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10553,10 +10541,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10582,10 +10570,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10611,10 +10599,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10640,10 +10628,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10669,10 +10657,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10698,10 +10686,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10727,10 +10715,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10756,10 +10744,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10785,10 +10773,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10814,10 +10802,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10843,10 +10831,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10872,10 +10860,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10901,10 +10889,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10930,10 +10918,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10959,10 +10947,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10988,10 +10976,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11017,10 +11005,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11046,10 +11034,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11075,10 +11063,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11104,10 +11092,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11133,10 +11121,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11162,10 +11150,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11191,10 +11179,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11220,10 +11208,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11249,10 +11237,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11278,10 +11266,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11307,10 +11295,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11336,10 +11324,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11365,10 +11353,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11394,10 +11382,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11423,10 +11411,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11452,10 +11440,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11481,10 +11469,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11510,10 +11498,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11539,10 +11527,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11568,10 +11556,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11597,10 +11585,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11626,10 +11614,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F304" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11655,10 +11643,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F305" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11684,10 +11672,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F306" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11713,10 +11701,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F307" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11742,10 +11730,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F308" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11771,10 +11759,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F309" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11800,10 +11788,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F310" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11829,10 +11817,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11858,10 +11846,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F312" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11887,10 +11875,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F313" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11916,10 +11904,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11945,10 +11933,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F315" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11974,10 +11962,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12003,10 +11991,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12032,10 +12020,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F318" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12061,10 +12049,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12090,10 +12078,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12119,10 +12107,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F321" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12148,10 +12136,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F322" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12177,10 +12165,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F323" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12206,10 +12194,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F324" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12235,10 +12223,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F325" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12264,10 +12252,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12293,10 +12281,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F327" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12322,10 +12310,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F328" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12351,10 +12339,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F329" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12380,10 +12368,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F330" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12409,10 +12397,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F331" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12438,10 +12426,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F332" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12467,10 +12455,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F333" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12496,10 +12484,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F334" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12525,10 +12513,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F335" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12554,10 +12542,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F336" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12583,10 +12571,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12612,10 +12600,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12641,10 +12629,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F339" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12670,10 +12658,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F340" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12699,10 +12687,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F341" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12728,10 +12716,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F342" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12757,10 +12745,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F343" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12786,10 +12774,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F344" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12815,10 +12803,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F345" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12844,10 +12832,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F346" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12873,10 +12861,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F347" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12902,10 +12890,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F348" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12931,10 +12919,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F349" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12960,10 +12948,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F350" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12989,10 +12977,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F351" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13018,10 +13006,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F352" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13047,10 +13035,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F353" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13076,10 +13064,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F354" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13105,10 +13093,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F355" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13134,10 +13122,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F356" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13163,10 +13151,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F357" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13192,10 +13180,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F358" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13221,10 +13209,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F359" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13250,10 +13238,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F360" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13279,10 +13267,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F361" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G361" t="n">
         <v>4</v>
@@ -13308,10 +13296,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F362" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13337,10 +13325,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F363" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13366,10 +13354,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F364" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13395,10 +13383,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F365" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13424,10 +13412,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F366" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13453,10 +13441,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F367" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13482,10 +13470,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F368" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13511,10 +13499,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F369" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13540,10 +13528,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F370" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13569,10 +13557,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F371" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13598,10 +13586,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F372" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13627,10 +13615,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F373" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13656,10 +13644,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F374" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13685,10 +13673,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F375" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13714,10 +13702,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F376" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13743,10 +13731,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F377" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13772,10 +13760,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F378" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13801,10 +13789,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F379" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13830,10 +13818,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F380" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13859,10 +13847,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F381" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13888,10 +13876,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F382" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13917,10 +13905,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F383" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13946,10 +13934,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F384" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13975,10 +13963,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F385" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14004,10 +13992,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F386" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14033,10 +14021,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F387" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14062,10 +14050,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F388" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14091,10 +14079,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F389" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14120,10 +14108,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F390" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14149,10 +14137,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F391" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14178,10 +14166,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F392" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14207,10 +14195,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F393" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14236,10 +14224,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F394" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14265,10 +14253,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F395" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14294,10 +14282,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F396" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14323,10 +14311,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F397" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14352,10 +14340,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F398" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14381,10 +14369,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="F399" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14410,10 +14398,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F400" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14439,10 +14427,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F401" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14468,10 +14456,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F402" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14497,10 +14485,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F403" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14526,10 +14514,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F404" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14555,10 +14543,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F405" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14584,10 +14572,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F406" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14613,10 +14601,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F407" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14642,10 +14630,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F408" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14671,10 +14659,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F409" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14700,10 +14688,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F410" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14729,10 +14717,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F411" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14758,10 +14746,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F412" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G412" t="n">
         <v>3</v>
@@ -14787,10 +14775,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F413" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14816,10 +14804,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F414" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14845,10 +14833,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F415" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
